--- a/src/main/resources/listener/leedonlineApi.xlsx
+++ b/src/main/resources/listener/leedonlineApi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22152" windowHeight="7908"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16656" windowHeight="3360"/>
   </bookViews>
   <sheets>
     <sheet name="STG" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>username</t>
   </si>
@@ -62,6 +62,30 @@
   </si>
   <si>
     <t>Updated data 12</t>
+  </si>
+  <si>
+    <t>projectType</t>
+  </si>
+  <si>
+    <t>INP:GRP</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>asc</t>
+  </si>
+  <si>
+    <t>leedProjectId</t>
+  </si>
+  <si>
+    <t>INP</t>
+  </si>
+  <si>
+    <t>ListOfProjectType</t>
+  </si>
+  <si>
+    <t>1000146660</t>
   </si>
 </sst>
 </file>
@@ -106,9 +130,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -390,15 +415,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +451,20 @@
       <c r="H1" t="s">
         <v>9</v>
       </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -448,6 +488,18 @@
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/listener/leedonlineApi.xlsx
+++ b/src/main/resources/listener/leedonlineApi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16656" windowHeight="3360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16656" windowHeight="3024"/>
   </bookViews>
   <sheets>
     <sheet name="STG" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>username</t>
   </si>
@@ -85,7 +85,85 @@
     <t>ListOfProjectType</t>
   </si>
   <si>
+    <t>currencyCode</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>countryCode</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>stateCode</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+  </si>
+  <si>
+    <t>orgName</t>
+  </si>
+  <si>
+    <t>My Organization</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>Test User</t>
+  </si>
+  <si>
+    <t>getFilesListLinkedTo</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>P1000146660_5aec7c1f24aca076e44144a2</t>
+  </si>
+  <si>
+    <t>fileId</t>
+  </si>
+  <si>
     <t>1000146660</t>
+  </si>
+  <si>
+    <t>cmd</t>
+  </si>
+  <si>
+    <t>getAccessKey</t>
+  </si>
+  <si>
+    <t>USD,INR</t>
+  </si>
+  <si>
+    <t>currencies</t>
+  </si>
+  <si>
+    <t>20170124205036:20170124205047</t>
+  </si>
+  <si>
+    <t>versions</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>20170124205047</t>
+  </si>
+  <si>
+    <t>programName</t>
+  </si>
+  <si>
+    <t>LEED</t>
   </si>
 </sst>
 </file>
@@ -415,18 +493,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,8 +542,50 @@
       <c r="L1" t="s">
         <v>14</v>
       </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -484,7 +605,7 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
@@ -496,10 +617,52 @@
         <v>17</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s">
         <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2">
+        <v>60</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2">
+        <v>20006</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/listener/leedonlineApi.xlsx
+++ b/src/main/resources/listener/leedonlineApi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16656" windowHeight="3024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16416" windowHeight="3276"/>
   </bookViews>
   <sheets>
     <sheet name="STG" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="109">
   <si>
     <t>username</t>
   </si>
@@ -31,9 +31,6 @@
     <t>clientKey</t>
   </si>
   <si>
-    <t>newserver6@gmail.com</t>
-  </si>
-  <si>
     <t>initpass</t>
   </si>
   <si>
@@ -109,18 +106,6 @@
     <t>zipCode</t>
   </si>
   <si>
-    <t>orgName</t>
-  </si>
-  <si>
-    <t>My Organization</t>
-  </si>
-  <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>Test User</t>
-  </si>
-  <si>
     <t>getFilesListLinkedTo</t>
   </si>
   <si>
@@ -164,13 +149,211 @@
   </si>
   <si>
     <t>LEED</t>
+  </si>
+  <si>
+    <t>orgName[1]</t>
+  </si>
+  <si>
+    <t>person[1]</t>
+  </si>
+  <si>
+    <t>USGBC</t>
+  </si>
+  <si>
+    <t>GBCI</t>
+  </si>
+  <si>
+    <t>Country[1]</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>memberEmail</t>
+  </si>
+  <si>
+    <t>mkumar@usgbc.org</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>team.add</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>resultKey</t>
+  </si>
+  <si>
+    <t>Architect</t>
+  </si>
+  <si>
+    <t>Team member added</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>docType</t>
+  </si>
+  <si>
+    <t>docId</t>
+  </si>
+  <si>
+    <t>11007289</t>
+  </si>
+  <si>
+    <t>linkedId</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>linkedTo</t>
+  </si>
+  <si>
+    <t>lockDelete</t>
+  </si>
+  <si>
+    <t>lockModify</t>
+  </si>
+  <si>
+    <t>linkedId1</t>
+  </si>
+  <si>
+    <t>review-payment</t>
+  </si>
+  <si>
+    <t>linkedIdNew</t>
+  </si>
+  <si>
+    <t>A1234</t>
+  </si>
+  <si>
+    <t>P1000150846_5b22c23124aca00434506fb2</t>
+  </si>
+  <si>
+    <t>deleteFileId</t>
+  </si>
+  <si>
+    <t>P1000150846_5b22c4db24aca00436358f83</t>
+  </si>
+  <si>
+    <t>https://www.google.com/</t>
+  </si>
+  <si>
+    <t>orderIdNew</t>
+  </si>
+  <si>
+    <t>processId</t>
+  </si>
+  <si>
+    <t>orderId</t>
+  </si>
+  <si>
+    <t>5b180e6724aca02d2d5035b4</t>
+  </si>
+  <si>
+    <t>transOrderId</t>
+  </si>
+  <si>
+    <t>N11009234T06061640</t>
+  </si>
+  <si>
+    <t>redirectUrl</t>
+  </si>
+  <si>
+    <t>gatewayEnvironment</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Group10</t>
+  </si>
+  <si>
+    <t>testuser@gmail.com</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Abc</t>
+  </si>
+  <si>
+    <t>test state</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>A1A A1A</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>payableAmount</t>
+  </si>
+  <si>
+    <t>pendingPaymnetProjectId</t>
+  </si>
+  <si>
+    <t>1000150470</t>
+  </si>
+  <si>
+    <t>pendingPaymentOrderId</t>
+  </si>
+  <si>
+    <t>11012320</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +368,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,10 +396,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -493,19 +682,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:BL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AU2" sqref="AU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,160 +706,392 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
       </c>
       <c r="G2">
         <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N2">
         <v>60</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q2">
         <v>20006</v>
       </c>
       <c r="R2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" t="s">
         <v>30</v>
       </c>
-      <c r="S2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>34</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>35</v>
       </c>
-      <c r="V2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>47</v>
+      <c r="AA2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS2">
+        <v>11007289</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU2">
+        <v>11009234</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ2">
+        <v>8072332211</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="AB2" r:id="rId3"/>
+    <hyperlink ref="AF2" r:id="rId4"/>
+    <hyperlink ref="BC2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>
--- a/src/main/resources/listener/leedonlineApi.xlsx
+++ b/src/main/resources/listener/leedonlineApi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16416" windowHeight="3276"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17016" windowHeight="3492"/>
   </bookViews>
   <sheets>
     <sheet name="STG" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="135">
   <si>
     <t>username</t>
   </si>
@@ -112,9 +112,6 @@
     <t>credit</t>
   </si>
   <si>
-    <t>P1000146660_5aec7c1f24aca076e44144a2</t>
-  </si>
-  <si>
     <t>fileId</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>deleteFileId</t>
   </si>
   <si>
-    <t>P1000150846_5b22c4db24aca00436358f83</t>
-  </si>
-  <si>
     <t>https://www.google.com/</t>
   </si>
   <si>
@@ -347,13 +341,98 @@
   </si>
   <si>
     <t>11012320</t>
+  </si>
+  <si>
+    <t>cmdMemberCredentials</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>forceSync</t>
+  </si>
+  <si>
+    <t>creditId</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>NSD3PI101L-1000146660</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>orgContactName</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>orgContactEmail</t>
+  </si>
+  <si>
+    <t>john@gmail.com</t>
+  </si>
+  <si>
+    <t>orgWebSite</t>
+  </si>
+  <si>
+    <t>test.com</t>
+  </si>
+  <si>
+    <t>orgCategory</t>
+  </si>
+  <si>
+    <t>Product Manufacturers</t>
+  </si>
+  <si>
+    <t>orgSubCategory</t>
+  </si>
+  <si>
+    <t>PM:Product Manufacturer</t>
+  </si>
+  <si>
+    <t>P10001466605b51319224aca030076ddc0aO000</t>
+  </si>
+  <si>
+    <t>fileIdDownloadUrl</t>
+  </si>
+  <si>
+    <t>P10001466605b6e053424aca037932199a4O000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>linkedToFiles</t>
+  </si>
+  <si>
+    <t>P10001466605b6e2b2e24aca03797391f89C000</t>
+  </si>
+  <si>
+    <t>P10001466605b77047024aca041b2726062O000</t>
+  </si>
+  <si>
+    <t>P10001466605b77063b24aca03f5b4b77f2O000</t>
+  </si>
+  <si>
+    <t>P10001466605b801e4a24aca03301764782O000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,20 +761,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL2"/>
+  <dimension ref="A1:BZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AU2" sqref="AU2"/>
+    <sheetView tabSelected="1" topLeftCell="BU1" workbookViewId="0">
+      <selection activeCell="BW4" sqref="BW4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="43.66796875" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -748,148 +828,187 @@
         <v>27</v>
       </c>
       <c r="R1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" t="s">
         <v>43</v>
-      </c>
-      <c r="S1" t="s">
-        <v>44</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
       </c>
       <c r="U1" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="V1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
-        <v>39</v>
-      </c>
       <c r="Z1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" t="s">
         <v>53</v>
       </c>
-      <c r="AE1" t="s">
-        <v>54</v>
-      </c>
       <c r="AF1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG1" t="s">
         <v>57</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>58</v>
       </c>
-      <c r="AH1" t="s">
-        <v>59</v>
-      </c>
       <c r="AI1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AJ1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK1" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>64</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>65</v>
       </c>
-      <c r="AM1" t="s">
-        <v>66</v>
-      </c>
       <c r="AN1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AO1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AP1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AQ1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AR1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AS1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU1" t="s">
         <v>74</v>
       </c>
-      <c r="AT1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>76</v>
       </c>
-      <c r="AV1" t="s">
-        <v>78</v>
-      </c>
       <c r="AW1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AX1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK1" t="s">
         <v>103</v>
       </c>
-      <c r="AY1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>105</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>107</v>
       </c>
+      <c r="BN1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,8 +1027,8 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
-        <v>10</v>
+      <c r="G2" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
@@ -921,7 +1040,7 @@
         <v>16</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
@@ -942,46 +1061,46 @@
         <v>20006</v>
       </c>
       <c r="R2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" t="s">
         <v>45</v>
-      </c>
-      <c r="S2" t="s">
-        <v>46</v>
       </c>
       <c r="T2" t="s">
         <v>29</v>
       </c>
       <c r="U2" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="V2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" t="s">
         <v>34</v>
       </c>
-      <c r="W2" t="s">
-        <v>35</v>
-      </c>
       <c r="X2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE2" t="s">
         <v>55</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>56</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>9</v>
@@ -990,10 +1109,10 @@
         <v>15</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ2" t="s">
         <v>15</v>
@@ -1005,82 +1124,118 @@
         <v>1</v>
       </c>
       <c r="AM2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AN2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO2" t="s">
         <v>69</v>
       </c>
-      <c r="AO2" t="s">
-        <v>70</v>
-      </c>
       <c r="AP2" s="3" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="AQ2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AS2">
         <v>11007289</v>
       </c>
       <c r="AT2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AU2">
         <v>11009234</v>
       </c>
       <c r="AV2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AW2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AX2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AY2" s="2">
         <v>2000</v>
       </c>
       <c r="AZ2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BB2" t="s">
         <v>94</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BC2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BD2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE2" t="s">
         <v>96</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BF2" t="s">
         <v>97</v>
       </c>
-      <c r="BD2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BE2" t="s">
+      <c r="BG2" t="s">
         <v>98</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BH2" t="s">
         <v>99</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BI2" t="s">
         <v>100</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>102</v>
       </c>
       <c r="BJ2">
         <v>8072332211</v>
       </c>
       <c r="BK2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BM2" t="s">
         <v>108</v>
+      </c>
+      <c r="BN2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>125</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BY2" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1090,8 +1245,9 @@
     <hyperlink ref="AB2" r:id="rId3"/>
     <hyperlink ref="AF2" r:id="rId4"/>
     <hyperlink ref="BC2" r:id="rId5"/>
+    <hyperlink ref="BS2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
 </worksheet>
 </file>